--- a/db/model_builder.xlsx
+++ b/db/model_builder.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\count_words\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24C601D-F773-4257-8422-2C8CF73FA7A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E36DFEE-5F68-4C5D-84AB-13ED43523081}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="885" windowWidth="22950" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="5835" windowWidth="22950" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="82">
   <si>
     <t>Type</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>баpа данных к которой относится таблица</t>
+  </si>
+  <si>
+    <t>data_base</t>
   </si>
 </sst>
 </file>
@@ -680,12 +683,6 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -703,6 +700,12 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1866,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2004,7 +2007,7 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:256" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -2023,10 +2026,10 @@
       <c r="G6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
@@ -2210,7 +2213,7 @@
       <c r="IV12"/>
     </row>
     <row r="13" spans="1:256" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="34" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -2273,7 +2276,7 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="6" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="16" t="s">
@@ -2782,13 +2785,13 @@
       <c r="IV30"/>
     </row>
     <row r="31" spans="1:256" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="35"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="33"/>
       <c r="IL31"/>
       <c r="IM31"/>
       <c r="IN31"/>
@@ -2920,7 +2923,7 @@
       <c r="IV35"/>
     </row>
     <row r="36" spans="1:256" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="34" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="20" t="s">

--- a/db/model_builder.xlsx
+++ b/db/model_builder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\count_words\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E36DFEE-5F68-4C5D-84AB-13ED43523081}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E4BF0D-0CF0-4888-B763-201F1DD758FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="5835" windowWidth="22950" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15015" yWindow="6195" windowWidth="22950" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1869,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
